--- a/medicine/Mort/Cimetière_Cataraqui/Cimetière_Cataraqui.xlsx
+++ b/medicine/Mort/Cimetière_Cataraqui/Cimetière_Cataraqui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Cataraqui</t>
+          <t>Cimetière_Cataraqui</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Cataraqui, situé à Kingston (Ontario), est le plus grand cimetière de la ville. Créé en 1850, il est toujours en activité, et compte plus de 46 000 tombes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Cataraqui, situé à Kingston (Ontario), est le plus grand cimetière de la ville. Créé en 1850, il est toujours en activité, et compte plus de 46 000 tombes.
 Le cimetière est connu pour la tombe de John A. Macdonald, le premier à avoir occupé le poste de premier ministre du Canada. 
-Sa tombe et le cimetière lui-même font partie des lieux historiques du Canada[1].
-Le cimetière contient les tombes de victimes de la première et de la deuxième guerre mondiale[2].
+Sa tombe et le cimetière lui-même font partie des lieux historiques du Canada.
+Le cimetière contient les tombes de victimes de la première et de la deuxième guerre mondiale.
 </t>
         </is>
       </c>
